--- a/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1546,10 +1546,15 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
@@ -1613,13 +1618,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1646,7 +1650,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1686,12 +1690,13 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -1718,7 +1723,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1757,13 +1762,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -1790,7 +1794,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1830,7 +1834,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1862,7 +1866,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -1901,7 +1905,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -1933,7 +1937,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -1972,7 +1976,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -1997,16 +2001,8 @@
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -2043,7 +2039,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2094,7 +2090,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2108,7 +2104,11 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>4:30 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2153,7 +2153,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>4:30 AM OFFICE LEAVE TIME</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2173,21 +2173,9 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -2200,7 +2188,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2239,7 +2227,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1157, STURGEON BAY</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2264,7 +2252,11 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>5:15 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2278,7 +2270,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1157, STURGEON BAY</t>
+          <t>1910 ALABAMA ST</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2306,7 +2298,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>5:15 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2322,7 +2314,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>1910 ALABAMA ST</t>
+          <t>https://goo.gl/maps/PT62tX3aqSWcCC5G6</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2349,7 +2341,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2363,11 +2355,7 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/PT62tX3aqSWcCC5G6</t>
-        </is>
-      </c>
+      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2392,7 +2380,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2401,9 +2389,21 @@
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2427,7 +2427,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>PIGGLY WIGGLY #102, ZION</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2448,21 +2448,9 @@
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2486,7 +2474,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #102, ZION</t>
+          <t>3341 SHERIDAN RD</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2525,7 +2513,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>3341 SHERIDAN RD</t>
+          <t>https://goo.gl/maps/RC9kMWnG1wn</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2576,7 +2564,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/RC9kMWnG1wn</t>
+          <t>Grafton meet at 4:30 am.  Go to Ryan Rd meet to ride in</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2625,11 +2613,7 @@
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Grafton meet at 4:30 am.  Go to Ryan Rd meet to ride in</t>
-        </is>
-      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
@@ -2675,9 +2659,22 @@
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe, Equip</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
@@ -2724,20 +2721,15 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe, Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
@@ -2784,15 +2776,20 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
@@ -2835,20 +2832,15 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
@@ -2857,7 +2849,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2891,7 +2883,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -2908,7 +2900,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -2935,19 +2927,23 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Tanner</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -2959,10 +2955,14 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2997,12 +2997,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Tanner</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3054,16 +3054,8 @@
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
@@ -3073,7 +3065,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3104,7 +3096,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3124,7 +3116,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3155,7 +3147,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3165,7 +3157,11 @@
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
@@ -3175,7 +3171,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3206,7 +3202,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3218,7 +3214,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3230,12 +3226,13 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
@@ -3261,7 +3258,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3273,27 +3270,14 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #867 +RX, BROWN DEER</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
@@ -3317,7 +3301,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3329,7 +3313,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>PICK #867 +RX, BROWN DEER</t>
+          <t>9200 N GREEN BAY RD.</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3360,7 +3344,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3372,13 +3356,17 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>9200 N GREEN BAY RD.</t>
+          <t>https://goo.gl/maps/CW7zvhV8HSR2</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:30 AM RYAN RD PNR (HWY 100 &amp; 94) </t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3396,26 +3384,14 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CW7zvhV8HSR2</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3423,7 +3399,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:30 AM RYAN RD PNR (HWY 100 &amp; 94) </t>
+          <t>8:30 AM START</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3448,17 +3424,13 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>SET UP ON REG #1</t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>8:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3479,17 +3451,33 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>*NEW AURORA RX FOR BADGER</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3512,31 +3500,27 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>*NEW AURORA RX FOR BADGER</t>
+          <t>AURORA OUTPATIENT RX #1512, CHICAGO</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3557,21 +3541,17 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3579,7 +3559,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1512, CHICAGO</t>
+          <t>2320 E 93RD ST, SUITE 3735</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3605,12 +3585,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -3618,7 +3598,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>2320 E 93RD ST, SUITE 3735</t>
+          <t>https://maps.app.goo.gl/Z8QCVPn4uuWc6kgC9</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -3644,22 +3624,18 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/Z8QCVPn4uuWc6kgC9</t>
-        </is>
-      </c>
+      <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
@@ -3683,19 +3659,35 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Until 9:00</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
@@ -3718,29 +3710,34 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="T66" t="inlineStr"/>
@@ -3765,12 +3762,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -3781,20 +3778,15 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
@@ -3817,12 +3809,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -3831,16 +3823,8 @@
         </is>
       </c>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
@@ -3864,17 +3848,18 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P69" t="inlineStr"/>
@@ -3903,23 +3888,26 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
@@ -3943,12 +3931,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -3960,7 +3948,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -3986,12 +3974,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -4003,7 +3991,7 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1760, OAK CREEK</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -4029,24 +4017,25 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1760, OAK CREEK</t>
+          <t>200 E RYAN ROAD, SUITE 101</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -4072,25 +4061,24 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>200 E RYAN ROAD, SUITE 101</t>
+          <t>https://goo.gl/maps/5XiBYxoT2sF2</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -4116,12 +4104,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -4131,11 +4119,7 @@
       </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/5XiBYxoT2sF2</t>
-        </is>
-      </c>
+      <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
@@ -4157,25 +4141,25 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
@@ -4183,45 +4167,6 @@
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
@@ -2927,14 +2927,10 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
@@ -2986,7 +2982,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3045,7 +3041,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3096,7 +3092,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3147,7 +3143,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3202,7 +3198,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3258,7 +3254,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3301,7 +3297,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3344,7 +3340,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3384,9 +3380,21 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
@@ -3451,11 +3459,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
@@ -3500,7 +3504,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3541,7 +3545,11 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">

--- a/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
@@ -762,11 +762,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -1592,7 +1588,11 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -1663,7 +1663,11 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
@@ -1736,7 +1740,11 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>CONTACT IS RAJ</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
@@ -1807,7 +1815,11 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>WAUKESHA MARKET, WAUKESHA (OLD HOP IT MARKET)</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -1879,7 +1891,11 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1610 LINCOLN AVE</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
@@ -1950,7 +1966,11 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/u6HHsSLpCCxmF7H86</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
@@ -2013,7 +2033,11 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
@@ -2064,7 +2088,11 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
@@ -2119,7 +2147,11 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>BP, BROOKFIELD</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -2166,7 +2198,11 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>14000 W. GREENFIELD AVE</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -2201,7 +2237,11 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/etFts7K3YCs5tVMF8</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -2240,7 +2280,11 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -2283,7 +2327,11 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -2327,7 +2375,11 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>BP, NEW BERLIN</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -2366,7 +2418,11 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>16401 W. GREENFIELD AVE</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
@@ -2413,7 +2469,11 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/KYcA4pAXYNofBi62A</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -2502,8 +2562,16 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -2541,8 +2609,16 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">

--- a/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
@@ -2668,7 +2668,11 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>

--- a/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
@@ -1320,7 +1320,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3007,10 +3007,14 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Until 9:00</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
@@ -3755,11 +3759,7 @@
           <t>Paul</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Until 9:00</t>
-        </is>
-      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>

--- a/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
@@ -1466,7 +1466,11 @@
           <t>Sydney</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
@@ -1478,7 +1482,11 @@
           <t>Sydney</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>

--- a/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
@@ -2624,10 +2624,14 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Until 11:30</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
@@ -2681,7 +2685,11 @@
           <t>3)</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">

--- a/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3743,7 +3743,11 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>**Katherine will be bringing the Optima to the meet</t>
+        </is>
+      </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
@@ -3777,21 +3781,9 @@
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
@@ -3830,18 +3822,17 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="T66" t="inlineStr"/>
@@ -3882,15 +3873,20 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Driver,
+**Optima</t>
+        </is>
+      </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
@@ -3927,8 +3923,16 @@
         </is>
       </c>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
@@ -4007,11 +4011,7 @@
       </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
@@ -4052,7 +4052,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -4095,7 +4095,7 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1760, OAK CREEK</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -4139,7 +4139,7 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>200 E RYAN ROAD, SUITE 101</t>
+          <t>AURORA OUTPATIENT RX #1760, OAK CREEK</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -4182,7 +4182,7 @@
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5XiBYxoT2sF2</t>
+          <t>200 E RYAN ROAD, SUITE 101</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -4223,7 +4223,11 @@
       </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5XiBYxoT2sF2</t>
+        </is>
+      </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
@@ -4249,21 +4253,9 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
@@ -4271,6 +4263,45 @@
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
@@ -762,7 +762,11 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>

--- a/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
@@ -3413,7 +3413,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>9200 N GREEN BAY RD.</t>
+          <t>9200 N GREEN BAY RD</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>

--- a/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
@@ -2033,8 +2033,16 @@
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -2144,11 +2152,7 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>4:30 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2197,7 +2201,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>4:30 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2236,7 +2240,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2279,7 +2283,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1157, STURGEON BAY</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2326,7 +2330,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>1910 ALABAMA ST</t>
+          <t>AURORA OUTPATIENT RX #1157, STURGEON BAY</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2374,7 +2378,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PT62tX3aqSWcCC5G6</t>
+          <t>1910 ALABAMA ST</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2419,7 +2423,11 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/PT62tX3aqSWcCC5G6</t>
+        </is>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2457,21 +2465,9 @@
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2520,9 +2516,21 @@
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>

--- a/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
@@ -1965,7 +1965,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -2033,16 +2033,8 @@
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -2152,7 +2144,11 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>4:30 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2201,7 +2197,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>4:30 AM OFFICE LEAVE TIME</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2240,7 +2236,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2283,7 +2279,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1157, STURGEON BAY</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2314,7 +2310,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>5:15 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2330,7 +2326,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1157, STURGEON BAY</t>
+          <t>1910 ALABAMA ST</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2362,7 +2358,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2378,7 +2374,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>1910 ALABAMA ST</t>
+          <t>https://goo.gl/maps/PT62tX3aqSWcCC5G6</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2409,7 +2405,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>PICK #867 +RX, BROWN DEER</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2423,11 +2419,7 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/PT62tX3aqSWcCC5G6</t>
-        </is>
-      </c>
+      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2456,7 +2448,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>9200 N GREEN BAY RD</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2465,9 +2457,21 @@
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2495,7 +2499,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #102, ZION</t>
+          <t>https://goo.gl/maps/CW7zvhV8HSR2</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2516,21 +2520,9 @@
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2554,7 +2546,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>3341 SHERIDAN RD</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2599,11 +2591,7 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/RC9kMWnG1wn</t>
-        </is>
-      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
@@ -2661,13 +2649,21 @@
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Grafton meet at 4:30 am.  Go to Ryan Rd meet to ride in</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
@@ -2720,8 +2716,16 @@
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
@@ -2769,20 +2773,15 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe, Equip</t>
-        </is>
-      </c>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
@@ -2829,12 +2828,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2884,20 +2883,15 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
@@ -2940,12 +2934,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -2991,12 +2985,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3008,7 +3002,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3046,15 +3040,19 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Tanner</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
@@ -3105,15 +3103,19 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr"/>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
@@ -3162,9 +3164,21 @@
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Kirsten</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
@@ -3213,9 +3227,22 @@
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
@@ -3264,13 +3291,21 @@
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr"/>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
@@ -3319,13 +3354,21 @@
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr"/>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
@@ -3375,13 +3418,21 @@
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>PICK #867 +RX, BROWN DEER</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr"/>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
@@ -3418,13 +3469,22 @@
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>9200 N GREEN BAY RD</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
@@ -3461,13 +3521,21 @@
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CW7zvhV8HSR2</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
@@ -3508,13 +3576,21 @@
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
@@ -3574,21 +3650,9 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
@@ -3621,14 +3685,10 @@
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3664,14 +3724,10 @@
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3703,16 +3759,8 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3742,16 +3790,8 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Pamela</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
@@ -3781,16 +3821,8 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
@@ -3816,21 +3848,9 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
@@ -3867,21 +3887,9 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
@@ -3919,21 +3927,9 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Kirsten</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
@@ -3966,22 +3962,9 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
@@ -4006,21 +3989,9 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Madison</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
@@ -4045,21 +4016,9 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
@@ -4088,21 +4047,9 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
@@ -4131,22 +4078,9 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
@@ -4175,21 +4109,9 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
@@ -4218,21 +4140,9 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">

--- a/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2454,7 +2454,11 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>5:15 am Grafton meet for Carlie and Trevor</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
@@ -2504,21 +2508,9 @@
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Santa Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
@@ -2553,15 +2545,19 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Santa Fe available, Equip</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
@@ -2596,12 +2592,12 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2667,15 +2663,19 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
@@ -2730,19 +2730,15 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
@@ -2785,17 +2781,17 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>After Aurora</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -2840,15 +2836,19 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
@@ -2895,12 +2895,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2946,12 +2946,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2997,12 +2997,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3056,17 +3056,17 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Carlie</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
@@ -3119,12 +3119,12 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3182,12 +3182,12 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3246,12 +3246,12 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3309,12 +3309,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3372,18 +3372,17 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
@@ -3434,9 +3433,22 @@
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
@@ -3538,11 +3550,7 @@
       </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:30 AM RYAN RD PNR (HWY 100 &amp; 94) </t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3595,7 +3603,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>8:30 AM START</t>
+          <t xml:space="preserve">6:30 AM RYAN RD PNR (HWY 100 &amp; 94) </t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3626,7 +3634,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>8:30 AM START</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3657,7 +3665,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>*NEW AURORA RX FOR BADGER</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3696,7 +3704,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1512, CHICAGO</t>
+          <t>*NEW AURORA RX FOR BADGER</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3735,7 +3743,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>2320 E 93RD ST, SUITE 3735</t>
+          <t>AURORA OUTPATIENT RX #1512, CHICAGO</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3766,7 +3774,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/Z8QCVPn4uuWc6kgC9</t>
+          <t>2320 E 93RD ST, SUITE 3735</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -3797,7 +3805,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>**Katherine will be bringing the Optima to the meet</t>
+          <t>https://maps.app.goo.gl/Z8QCVPn4uuWc6kgC9</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -3826,7 +3834,11 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>**Katherine will be bringing the Optima to the meet</t>
+        </is>
+      </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
@@ -3852,21 +3864,9 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
@@ -3893,18 +3893,17 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>Driver,
-**Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="T67" t="inlineStr"/>
@@ -3933,15 +3932,20 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Driver,
+**Optima</t>
+        </is>
+      </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
@@ -3966,8 +3970,16 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
@@ -4021,11 +4033,7 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
@@ -4054,7 +4062,7 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -4085,7 +4093,7 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1760, OAK CREEK</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -4116,7 +4124,7 @@
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>200 E RYAN ROAD, SUITE 101</t>
+          <t>AURORA OUTPATIENT RX #1760, OAK CREEK</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -4147,7 +4155,7 @@
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5XiBYxoT2sF2</t>
+          <t>200 E RYAN ROAD, SUITE 101</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -4176,7 +4184,11 @@
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5XiBYxoT2sF2</t>
+        </is>
+      </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
@@ -4202,21 +4214,9 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
@@ -4224,6 +4224,45 @@
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y78"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2456,7 +2456,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>5:15 am Grafton meet for Carlie and Trevor</t>
+          <t>5:15 am Grafton meet for Grafton crew</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Tanner</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3124,12 +3124,12 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Carlie</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3440,13 +3440,12 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
@@ -3498,9 +3497,22 @@
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
@@ -3601,11 +3613,7 @@
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:30 AM RYAN RD PNR (HWY 100 &amp; 94) </t>
-        </is>
-      </c>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
@@ -3634,7 +3642,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>8:30 AM START</t>
+          <t xml:space="preserve">6:30 AM RYAN RD PNR (HWY 100 &amp; 94) </t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3665,7 +3673,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>8:30 AM START</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3704,7 +3712,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>*NEW AURORA RX FOR BADGER</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3743,7 +3751,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1512, CHICAGO</t>
+          <t>*NEW AURORA RX FOR BADGER</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3774,7 +3782,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>2320 E 93RD ST, SUITE 3735</t>
+          <t>AURORA OUTPATIENT RX #1512, CHICAGO</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -3805,7 +3813,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/Z8QCVPn4uuWc6kgC9</t>
+          <t>2320 E 93RD ST, SUITE 3735</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -3836,7 +3844,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>**Katherine will be bringing the Optima to the meet</t>
+          <t>https://maps.app.goo.gl/Z8QCVPn4uuWc6kgC9</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -3865,7 +3873,11 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>**Katherine will be bringing the Optima to the meet</t>
+        </is>
+      </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
@@ -3891,21 +3903,9 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
@@ -3932,18 +3932,17 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>Driver,
-**Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="T68" t="inlineStr"/>
@@ -3972,15 +3971,20 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Driver,
+**Optima</t>
+        </is>
+      </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
@@ -4005,8 +4009,16 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
@@ -4060,11 +4072,7 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
@@ -4093,7 +4101,7 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -4124,7 +4132,7 @@
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1760, OAK CREEK</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -4155,7 +4163,7 @@
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>200 E RYAN ROAD, SUITE 101</t>
+          <t>AURORA OUTPATIENT RX #1760, OAK CREEK</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -4186,7 +4194,7 @@
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5XiBYxoT2sF2</t>
+          <t>200 E RYAN ROAD, SUITE 101</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -4215,7 +4223,11 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5XiBYxoT2sF2</t>
+        </is>
+      </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
@@ -4241,21 +4253,9 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
@@ -4263,6 +4263,45 @@
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
     </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
@@ -1342,7 +1342,8 @@
       <c r="O20" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Red Van,
+Rx</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1483,14 +1484,10 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1554,13 +1551,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>

--- a/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Milwaukee Schedule.xlsx
@@ -1074,7 +1074,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -1216,10 +1216,14 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -1284,12 +1288,12 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
@@ -1370,14 +1374,10 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -1954,16 +1954,8 @@
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
@@ -2085,7 +2077,11 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>4:30 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2142,7 +2138,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>4:30 AM OFFICE LEAVE TIME</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2193,7 +2189,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2232,7 +2228,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1157, STURGEON BAY</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2275,7 +2271,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1157, STURGEON BAY</t>
+          <t>1910 ALABAMA ST</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2322,7 +2318,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>1910 ALABAMA ST</t>
+          <t>https://goo.gl/maps/PT62tX3aqSWcCC5G6</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2368,11 +2364,7 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/PT62tX3aqSWcCC5G6</t>
-        </is>
-      </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2414,9 +2406,21 @@
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2457,21 +2461,9 @@
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
